--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Nanyang Technological University\Year 2\Sem 2\SC2002 OOP\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E93015C6-51B2-494F-BF0D-6555A2297A10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D8E8332-E3CB-4DFE-85EE-258FED5D366F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A550E0C-30B8-4F0A-9BB7-FCFB942E1D78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A550E0C-30B8-4F0A-9BB7-FCFB942E1D78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADCBE3C-185C-42AB-B0DA-AF0BE6F2C0F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,42 @@
   </si>
   <si>
     <t>AKY013@e.ntu.edu.sg;</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>KOH1</t>
+  </si>
+  <si>
+    <t>BR015</t>
+  </si>
+  <si>
+    <t>CT113</t>
+  </si>
+  <si>
+    <t>YCN019</t>
+  </si>
+  <si>
+    <t>DL007</t>
+  </si>
+  <si>
+    <t>DON84</t>
+  </si>
+  <si>
+    <t>ELI34</t>
+  </si>
+  <si>
+    <t>LE51</t>
+  </si>
+  <si>
+    <t>SL22</t>
+  </si>
+  <si>
+    <t>AKY013</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -440,128 +476,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B663E933-92D6-47AE-9545-627F61C39D32}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{91C33AD5-35F2-4A3A-959A-C87C2162E9B9}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{3361E6EC-8183-4CC2-9EB5-4D8406720EFD}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{955E528D-1008-47EA-A35C-104EB72DF944}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{54EF69E7-4E62-469D-AA1E-4618A065A189}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{7254179A-C06A-483F-AAD0-CC3AAA78DFAB}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{4F024CCC-B278-4021-BDF8-EBF854AA15C1}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{4BC2904C-82AC-418F-8A40-8AEE365A78F6}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{D76D6340-A367-4E32-ABF4-257D40F0ED14}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{4E0422A0-CAA4-4F75-82E6-A434E940A6B7}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{3F90C71F-80BE-4B48-977D-3B37A5AD0B30}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B663E933-92D6-47AE-9545-627F61C39D32}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{91C33AD5-35F2-4A3A-959A-C87C2162E9B9}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{3361E6EC-8183-4CC2-9EB5-4D8406720EFD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{955E528D-1008-47EA-A35C-104EB72DF944}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{54EF69E7-4E62-469D-AA1E-4618A065A189}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{7254179A-C06A-483F-AAD0-CC3AAA78DFAB}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{4F024CCC-B278-4021-BDF8-EBF854AA15C1}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{4BC2904C-82AC-418F-8A40-8AEE365A78F6}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{D76D6340-A367-4E32-ABF4-257D40F0ED14}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{4E0422A0-CAA4-4F75-82E6-A434E940A6B7}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{3F90C71F-80BE-4B48-977D-3B37A5AD0B30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADCBE3C-185C-42AB-B0DA-AF0BE6F2C0F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EF284-2E40-4758-9864-65527B3E5B15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">CHERN </t>
   </si>
   <si>
-    <t xml:space="preserve">KOH </t>
-  </si>
-  <si>
     <t xml:space="preserve">BRANDON </t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>KOH</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -501,123 +501,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clare/Documents/GitHub/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EF284-2E40-4758-9864-65527B3E5B15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EA8561-E811-EE47-B64A-5C5E64C801BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,16 +479,16 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -510,7 +510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -532,7 +532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -543,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -576,7 +576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -587,7 +587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -598,7 +598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -609,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EF284-2E40-4758-9864-65527B3E5B15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C826ECE-55EA-413F-A8E8-239718760F50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>KOH</t>
+  </si>
+  <si>
+    <t>Assigned</t>
   </si>
 </sst>
 </file>
@@ -191,10 +194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +492,7 @@
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -498,8 +502,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -509,8 +516,11 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -520,8 +530,11 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -531,8 +544,11 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -542,8 +558,11 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -553,8 +572,11 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -564,8 +586,11 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -575,8 +600,11 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -586,8 +614,11 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -597,8 +628,11 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -608,8 +642,11 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -618,6 +655,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clare/Documents/GitHub/OOP-FYP-Management-Project/App/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EA8561-E811-EE47-B64A-5C5E64C801BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C826ECE-55EA-413F-A8E8-239718760F50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>KOH</t>
+  </si>
+  <si>
+    <t>Assigned</t>
   </si>
 </sst>
 </file>
@@ -191,10 +194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,19 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -498,8 +502,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -509,8 +516,11 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -520,8 +530,11 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -531,8 +544,11 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -542,8 +558,11 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -553,8 +572,11 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -564,8 +586,11 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -575,8 +600,11 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -586,8 +614,11 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -597,8 +628,11 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -608,8 +642,11 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -618,6 +655,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C826ECE-55EA-413F-A8E8-239718760F50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE30D30-5B49-4DF0-A22F-E13A809145EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -136,12 +136,19 @@
   </si>
   <si>
     <t>Assigned</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,8 +495,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="30.5546875"/>
+    <col min="3" max="3" customWidth="true" width="36.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,157 +514,157 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="b">
-        <v>0</v>
+      <c r="D2" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="b">
-        <v>0</v>
+      <c r="D3" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="b">
-        <v>0</v>
+      <c r="D4" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
+      <c r="D5" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
+      <c r="D6" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
+      <c r="D7" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
+      <c r="D8" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
+      <c r="D9" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
+      <c r="D10" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
+      <c r="D11" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="b">
-        <v>0</v>
+      <c r="D12" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Nanyang Technological University\Year 2\Sem 2\SC2002 OOP\Assignment\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE30D30-5B49-4DF0-A22F-E13A809145EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BDE30D30-5B49-4DF0-A22F-E13A809145EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{69903189-4A4F-43A9-87E6-84491CB9010E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Assigned</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -148,8 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,14 +157,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,18 +185,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,185 +474,185 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.5546875"/>
-    <col min="3" max="3" customWidth="true" width="36.6640625"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>38</v>
+      <c r="D2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>38</v>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>38</v>
+      <c r="D4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>38</v>
+      <c r="D5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>38</v>
+      <c r="D6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>38</v>
+      <c r="D7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>38</v>
+      <c r="D8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>38</v>
+      <c r="D9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>38</v>
+      <c r="D10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>38</v>
+      <c r="D11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>38</v>
+      <c r="D12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B663E933-92D6-47AE-9545-627F61C39D32}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{91C33AD5-35F2-4A3A-959A-C87C2162E9B9}"/>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C826ECE-55EA-413F-A8E8-239718760F50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE10428-2A65-4DDD-8AA3-DFE47E94BF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -136,13 +136,19 @@
   </si>
   <si>
     <t>Assigned</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,14 +160,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,18 +188,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,185 +477,185 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="b">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B663E933-92D6-47AE-9545-627F61C39D32}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{91C33AD5-35F2-4A3A-959A-C87C2162E9B9}"/>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Nanyang Technological University\Year 2\Sem 2\SC2002 OOP\Assignment\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE10428-2A65-4DDD-8AA3-DFE47E94BF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BDE30D30-5B49-4DF0-A22F-E13A809145EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{69903189-4A4F-43A9-87E6-84491CB9010E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Assigned</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -477,16 +474,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -500,7 +497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -514,7 +511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -525,10 +522,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -539,10 +536,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -553,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -567,10 +564,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -581,10 +578,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -595,10 +592,10 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -609,10 +606,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -623,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -637,10 +634,10 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -651,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Nanyang Technological University\Year 2\Sem 2\SC2002 OOP\Assignment\archive\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -139,12 +139,16 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,8 +483,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="30.5546875"/>
+    <col min="3" max="3" customWidth="true" width="36.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -498,156 +502,156 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
+      <c r="D2" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>37</v>
       </c>
     </row>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE10428-2A65-4DDD-8AA3-DFE47E94BF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDD3725-A8B8-485B-BDD2-0A816E7B008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Assigned</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -525,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -539,7 +536,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -553,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -567,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -581,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -595,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -609,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -623,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -637,7 +634,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -651,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Nanyang Technological University\Year 2\Sem 2\SC2002 OOP\Assignment\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BDE30D30-5B49-4DF0-A22F-E13A809145EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{69903189-4A4F-43A9-87E6-84491CB9010E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A5CBDF-1D92-744E-88E1-1D2550644682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -139,16 +139,12 @@
   </si>
   <si>
     <t>FALSE</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,9 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,16 +477,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.5546875"/>
-    <col min="3" max="3" customWidth="true" width="36.6640625"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -501,157 +500,157 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
     </row>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -139,12 +139,16 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,8 +486,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="30.5"/>
+    <col min="3" max="3" customWidth="true" width="36.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -501,156 +505,156 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
+      <c r="D2" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
+      <c r="D3" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>37</v>
       </c>
     </row>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A5CBDF-1D92-744E-88E1-1D2550644682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB8EEDC-7FCC-494A-9E21-0ECD87071E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -139,16 +139,12 @@
   </si>
   <si>
     <t>FALSE</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,13 +477,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.5"/>
-    <col min="3" max="3" customWidth="true" width="36.6640625"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -505,156 +501,156 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>38</v>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>38</v>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
     </row>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -139,12 +139,16 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,8 +483,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="30.54296875"/>
+    <col min="3" max="3" customWidth="true" width="36.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -498,156 +502,156 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>37</v>
       </c>
     </row>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A5CBDF-1D92-744E-88E1-1D2550644682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E33BB6-90BF-40AB-8211-7262067A7FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -139,16 +139,12 @@
   </si>
   <si>
     <t>FALSE</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,12 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,16 +474,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.5"/>
-    <col min="3" max="3" customWidth="true" width="36.6640625"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -504,157 +497,157 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s" s="0">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s" s="0">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s" s="0">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s" s="0">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s" s="0">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s" s="0">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s" s="0">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s" s="0">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s" s="0">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s" s="0">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
     </row>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -139,12 +139,16 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,8 +483,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="30.453125"/>
+    <col min="3" max="3" customWidth="true" width="36.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -498,156 +502,156 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>37</v>
       </c>
     </row>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>TWEE005</t>
+  </si>
+  <si>
+    <t>TOMMY</t>
+  </si>
+  <si>
+    <t>TWEE005@e.ntu.edu.sg</t>
   </si>
 </sst>
 </file>
@@ -475,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -652,6 +661,20 @@
         <v>22</v>
       </c>
       <c r="D12" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>37</v>
       </c>
     </row>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -139,12 +139,22 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>johnson@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -479,8 +489,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="30.453125"/>
+    <col min="3" max="3" customWidth="true" width="36.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -498,157 +508,171 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
+      <c r="D3" t="s" s="0">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>37</v>
+      <c r="D12" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/student_list.xlsx
+++ b/App/data/student_list.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Nanyang Technological University\Year 2\Sem 2\SC2002 OOP\Assignment\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E33BB6-90BF-40AB-8211-7262067A7FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BDE30D30-5B49-4DF0-A22F-E13A809145EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{69903189-4A4F-43A9-87E6-84491CB9010E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -139,25 +139,12 @@
   </si>
   <si>
     <t>FALSE</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>TWEE005</t>
-  </si>
-  <si>
-    <t>TOMMY</t>
-  </si>
-  <si>
-    <t>TWEE005@e.ntu.edu.sg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,19 +471,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.453125"/>
-    <col min="3" max="3" customWidth="true" width="36.6328125"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -510,171 +497,157 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
     </row>
